--- a/demog functions/References/ew_jp_solutions.xlsx
+++ b/demog functions/References/ew_jp_solutions.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ridhikashyap/Dropbox/Teaching/Demography and Population/week2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GitHub\personal-improvement\demog functions\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E819CCA-5095-D545-BC16-4DF34D8496A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="660" windowWidth="36200" windowHeight="23880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ew_jp" sheetId="1" r:id="rId1"/>
     <sheet name="plots" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -91,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -141,7 +137,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -180,6 +176,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -571,7 +568,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-782D-CB41-A9C4-77130AE386B8}"/>
             </c:ext>
@@ -586,11 +583,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-2077036512"/>
-        <c:axId val="-2077063776"/>
+        <c:axId val="1163886384"/>
+        <c:axId val="1163879856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2077036512"/>
+        <c:axId val="1163886384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077063776"/>
+        <c:crossAx val="1163879856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -640,7 +637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2077063776"/>
+        <c:axId val="1163879856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,6 +688,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -751,7 +749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077036512"/>
+        <c:crossAx val="1163886384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -801,7 +799,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -840,6 +838,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1231,7 +1230,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D640-CB4F-AFD5-BB70F887E89D}"/>
             </c:ext>
@@ -1246,11 +1245,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-2033674704"/>
-        <c:axId val="2056662592"/>
+        <c:axId val="1163881488"/>
+        <c:axId val="1163894000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2033674704"/>
+        <c:axId val="1163881488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1291,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056662592"/>
+        <c:crossAx val="1163894000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1300,7 +1299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2056662592"/>
+        <c:axId val="1163894000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,6 +1345,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1406,7 +1406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2033674704"/>
+        <c:crossAx val="1163881488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1456,7 +1456,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1836,7 +1836,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D299-1D45-9737-F34DBC81B09D}"/>
             </c:ext>
@@ -2203,7 +2203,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D299-1D45-9737-F34DBC81B09D}"/>
             </c:ext>
@@ -2218,11 +2218,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2057345792"/>
-        <c:axId val="-2021848176"/>
+        <c:axId val="1163893456"/>
+        <c:axId val="1163891280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2057345792"/>
+        <c:axId val="1163893456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2327,7 +2327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2021848176"/>
+        <c:crossAx val="1163891280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2335,7 +2335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2021848176"/>
+        <c:axId val="1163891280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -2382,6 +2382,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2442,7 +2443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057345792"/>
+        <c:crossAx val="1163893456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2456,6 +2457,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2523,7 +2525,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2572,6 +2574,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2976,7 +2979,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6427-D443-A26E-D36487D55780}"/>
             </c:ext>
@@ -3351,7 +3354,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6427-D443-A26E-D36487D55780}"/>
             </c:ext>
@@ -3366,11 +3369,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1834542192"/>
-        <c:axId val="1836654464"/>
+        <c:axId val="1163894544"/>
+        <c:axId val="1163895088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1834542192"/>
+        <c:axId val="1163894544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3412,7 +3415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1836654464"/>
+        <c:crossAx val="1163895088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3420,7 +3423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1836654464"/>
+        <c:axId val="1163895088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3471,7 +3474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1834542192"/>
+        <c:crossAx val="1163894544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3485,6 +3488,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5773,7 +5777,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5811,7 +5815,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5849,7 +5853,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5887,7 +5891,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6172,30 +6176,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="89" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.69921875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.19921875" customWidth="1"/>
+    <col min="10" max="10" width="23.69921875" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="12" max="12" width="25.296875" customWidth="1"/>
+    <col min="13" max="13" width="32.796875" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6239,7 +6244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6292,7 +6297,7 @@
         <v>4.1332453085733025E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6309,43 +6314,43 @@
         <v>342078</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">B3/C3</f>
+        <f>B3/C3</f>
         <v>3.5984516932174046E-4</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">D3/E3</f>
+        <f t="shared" ref="G3:G66" si="0">D3/E3</f>
         <v>3.1279415805751903E-4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="2">LN(F3)</f>
+        <f t="shared" ref="H3:H66" si="1">LN(F3)</f>
         <v>-7.9298367042446793</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="3">LN(G3)</f>
+        <f t="shared" ref="I3:I66" si="2">LN(G3)</f>
         <v>-8.0699652257542258</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="4">C3/$C$113</f>
+        <f t="shared" ref="J3:J66" si="3">C3/$C$113</f>
         <v>7.9326359034609731E-3</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="5">E3/$E$113</f>
+        <f t="shared" ref="K3:K66" si="4">E3/$E$113</f>
         <v>1.2079357264828814E-2</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="6">(J3 + K3)/2</f>
+        <f t="shared" ref="L3:L66" si="5">(J3 + K3)/2</f>
         <v>1.0005996584144894E-2</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="7">L3 * F3</f>
+        <f t="shared" ref="M3:M66" si="6">L3 * F3</f>
         <v>3.600609535054376E-6</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="8">G3*L3</f>
+        <f t="shared" ref="N3:N66" si="7">G3*L3</f>
         <v>3.1298172770640132E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6362,43 +6367,43 @@
         <v>339683</v>
       </c>
       <c r="F4">
+        <f>B4/C4</f>
+        <v>2.0041200082477245E-4</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>2.0041200082477245E-4</v>
-      </c>
-      <c r="G4">
+        <v>1.2658861350141161E-4</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="1"/>
-        <v>1.2658861350141161E-4</v>
-      </c>
-      <c r="H4">
+        <v>-8.515135306191409</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="2"/>
-        <v>-8.515135306191409</v>
-      </c>
-      <c r="I4">
+        <v>-8.9745679930462536</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="3"/>
-        <v>-8.9745679930462536</v>
-      </c>
-      <c r="J4">
+        <v>8.0070231701754608E-3</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="4"/>
-        <v>8.0070231701754608E-3</v>
-      </c>
-      <c r="K4">
+        <v>1.1994785732461153E-2</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="5"/>
-        <v>1.1994785732461153E-2</v>
-      </c>
-      <c r="L4">
+        <v>1.0000904451318307E-2</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="6"/>
-        <v>1.0000904451318307E-2</v>
-      </c>
-      <c r="M4">
+        <v>2.0043012711460751E-6</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="7"/>
-        <v>2.0043012711460751E-6</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="8"/>
         <v>1.2660006282524802E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6415,43 +6420,43 @@
         <v>333300</v>
       </c>
       <c r="F5">
+        <f t="shared" ref="F3:F66" si="8">B5/C5</f>
+        <v>1.4657524999758922E-4</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>1.4657524999758922E-4</v>
-      </c>
-      <c r="G5">
+        <v>1.3801380138013801E-4</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>1.3801380138013801E-4</v>
-      </c>
-      <c r="H5">
+        <v>-8.8279716095204357</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>-8.8279716095204357</v>
-      </c>
-      <c r="I5">
+        <v>-8.8881568678067353</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="3"/>
-        <v>-8.8881568678067353</v>
-      </c>
-      <c r="J5">
+        <v>8.0004500576219724E-3</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="4"/>
-        <v>8.0004500576219724E-3</v>
-      </c>
-      <c r="K5">
+        <v>1.176939112239736E-2</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="5"/>
-        <v>1.176939112239736E-2</v>
-      </c>
-      <c r="L5">
+        <v>9.8849205900096663E-3</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="6"/>
-        <v>9.8849205900096663E-3</v>
-      </c>
-      <c r="M5">
+        <v>1.448884706686984E-6</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="7"/>
-        <v>1.448884706686984E-6</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="8"/>
         <v>1.3642554669680308E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6468,43 +6473,43 @@
         <v>324776</v>
       </c>
       <c r="F6">
+        <f t="shared" si="8"/>
+        <v>9.5246796111598143E-5</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>9.5246796111598143E-5</v>
-      </c>
-      <c r="G6">
+        <v>1.0160849323841663E-4</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>1.0160849323841663E-4</v>
-      </c>
-      <c r="H6">
+        <v>-9.2590391811468287</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>-9.2590391811468287</v>
-      </c>
-      <c r="I6">
+        <v>-9.1943834314474433</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="3"/>
-        <v>-9.1943834314474433</v>
-      </c>
-      <c r="J6">
+        <v>7.9379283391554506E-3</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="4"/>
-        <v>7.9379283391554506E-3</v>
-      </c>
-      <c r="K6">
+        <v>1.1468394152918466E-2</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="5"/>
-        <v>1.1468394152918466E-2</v>
-      </c>
-      <c r="L6">
+        <v>9.7031612460369582E-3</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="6"/>
-        <v>9.7031612460369582E-3</v>
-      </c>
-      <c r="M6">
+        <v>9.241950208392427E-7</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="7"/>
-        <v>9.241950208392427E-7</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="8"/>
         <v>9.8592359385921253E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6521,43 +6526,43 @@
         <v>315630</v>
       </c>
       <c r="F7">
+        <f t="shared" si="8"/>
+        <v>1.1511895625479662E-4</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>1.1511895625479662E-4</v>
-      </c>
-      <c r="G7">
+        <v>8.2374932674333877E-5</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>8.2374932674333877E-5</v>
-      </c>
-      <c r="H7">
+        <v>-9.0695445620107265</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>-9.0695445620107265</v>
-      </c>
-      <c r="I7">
+        <v>-9.4042293824489605</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="3"/>
-        <v>-9.4042293824489605</v>
-      </c>
-      <c r="J7">
+        <v>8.0420334809357136E-3</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="4"/>
-        <v>8.0420334809357136E-3</v>
-      </c>
-      <c r="K7">
+        <v>1.1145433303217158E-2</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="5"/>
-        <v>1.1145433303217158E-2</v>
-      </c>
-      <c r="L7">
+        <v>9.5937333920764357E-3</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="6"/>
-        <v>9.5937333920764357E-3</v>
-      </c>
-      <c r="M7">
+        <v>1.1044205746826288E-6</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="7"/>
-        <v>1.1044205746826288E-6</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="8"/>
         <v>7.9028314226780516E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6574,43 +6579,43 @@
         <v>306718</v>
       </c>
       <c r="F8">
+        <f t="shared" si="8"/>
+        <v>9.3679272149527112E-5</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>9.3679272149527112E-5</v>
-      </c>
-      <c r="G8">
+        <v>8.8028743014756226E-5</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>8.8028743014756226E-5</v>
-      </c>
-      <c r="H8">
+        <v>-9.2756336082446289</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>-9.2756336082446289</v>
-      </c>
-      <c r="I8">
+        <v>-9.3378471716487716</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="3"/>
-        <v>-9.3378471716487716</v>
-      </c>
-      <c r="J8">
+        <v>8.2354619761717263E-3</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="4"/>
-        <v>8.2354619761717263E-3</v>
-      </c>
-      <c r="K8">
+        <v>1.0830735392377657E-2</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="5"/>
-        <v>1.0830735392377657E-2</v>
-      </c>
-      <c r="L8">
+        <v>9.5330986842746927E-3</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="6"/>
-        <v>9.5330986842746927E-3</v>
-      </c>
-      <c r="M8">
+        <v>8.930537460724678E-7</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="7"/>
-        <v>8.930537460724678E-7</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="8"/>
         <v>8.3918669421232761E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6627,43 +6632,43 @@
         <v>298809</v>
       </c>
       <c r="F9">
+        <f t="shared" si="8"/>
+        <v>5.493489299598426E-5</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>5.493489299598426E-5</v>
-      </c>
-      <c r="G9">
+        <v>8.7012104722414659E-5</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>8.7012104722414659E-5</v>
-      </c>
-      <c r="H9">
+        <v>-9.8093618376428662</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
-        <v>-9.8093618376428662</v>
-      </c>
-      <c r="I9">
+        <v>-9.3494633142476324</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="3"/>
-        <v>-9.3494633142476324</v>
-      </c>
-      <c r="J9">
+        <v>8.4262519684813394E-3</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="4"/>
-        <v>8.4262519684813394E-3</v>
-      </c>
-      <c r="K9">
+        <v>1.0551455121189417E-2</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="5"/>
-        <v>1.0551455121189417E-2</v>
-      </c>
-      <c r="L9">
+        <v>9.4888535448353784E-3</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="6"/>
-        <v>9.4888535448353784E-3</v>
-      </c>
-      <c r="M9">
+        <v>5.2126915414009746E-7</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="7"/>
-        <v>5.2126915414009746E-7</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="8"/>
         <v>8.2564511833887148E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6680,43 +6685,43 @@
         <v>295383</v>
       </c>
       <c r="F10">
+        <f t="shared" si="8"/>
+        <v>7.5363223823391668E-5</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>7.5363223823391668E-5</v>
-      </c>
-      <c r="G10">
+        <v>1.1510479614602058E-4</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
-        <v>1.1510479614602058E-4</v>
-      </c>
-      <c r="H10">
+        <v>-9.4931911496383421</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="2"/>
-        <v>-9.4931911496383421</v>
-      </c>
-      <c r="I10">
+        <v>-9.069667573721258</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="3"/>
-        <v>-9.069667573721258</v>
-      </c>
-      <c r="J10">
+        <v>8.5990661952397435E-3</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="4"/>
-        <v>8.5990661952397435E-3</v>
-      </c>
-      <c r="K10">
+        <v>1.0430477221443442E-2</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="5"/>
-        <v>1.0430477221443442E-2</v>
-      </c>
-      <c r="L10">
+        <v>9.514771708341592E-3</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="6"/>
-        <v>9.514771708341592E-3</v>
-      </c>
-      <c r="M10">
+        <v>7.1706386988422214E-7</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="7"/>
-        <v>7.1706386988422214E-7</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="8"/>
         <v>1.0951958578645831E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6733,43 +6738,43 @@
         <v>299729</v>
       </c>
       <c r="F11">
+        <f t="shared" si="8"/>
+        <v>6.5580511598888327E-5</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>6.5580511598888327E-5</v>
-      </c>
-      <c r="G11">
+        <v>7.3399637672697665E-5</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
-        <v>7.3399637672697665E-5</v>
-      </c>
-      <c r="H11">
+        <v>-9.6322319854362615</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="2"/>
-        <v>-9.6322319854362615</v>
-      </c>
-      <c r="I11">
+        <v>-9.5195915586952573</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="3"/>
-        <v>-9.5195915586952573</v>
-      </c>
-      <c r="J11">
+        <v>8.7053932342211846E-3</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="4"/>
-        <v>8.7053932342211846E-3</v>
-      </c>
-      <c r="K11">
+        <v>1.0583941889364051E-2</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="5"/>
-        <v>1.0583941889364051E-2</v>
-      </c>
-      <c r="L11">
+        <v>9.6446675617926185E-3</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="6"/>
-        <v>9.6446675617926185E-3</v>
-      </c>
-      <c r="M11">
+        <v>6.3250223290356279E-7</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="7"/>
-        <v>6.3250223290356279E-7</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="8"/>
         <v>7.079151045091986E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6786,43 +6791,43 @@
         <v>307791</v>
       </c>
       <c r="F12">
+        <f t="shared" si="8"/>
+        <v>6.3340916648632094E-5</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
-        <v>6.3340916648632094E-5</v>
-      </c>
-      <c r="G12">
+        <v>7.1477073728601546E-5</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
-        <v>7.1477073728601546E-5</v>
-      </c>
-      <c r="H12">
+        <v>-9.6669790450823978</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="2"/>
-        <v>-9.6669790450823978</v>
-      </c>
-      <c r="I12">
+        <v>-9.5461338068350283</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="3"/>
-        <v>-9.5461338068350283</v>
-      </c>
-      <c r="J12">
+        <v>8.7695968054302669E-3</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="4"/>
-        <v>8.7695968054302669E-3</v>
-      </c>
-      <c r="K12">
+        <v>1.0868624851346553E-2</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="5"/>
-        <v>1.0868624851346553E-2</v>
-      </c>
-      <c r="L12">
+        <v>9.8191108283884089E-3</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="6"/>
-        <v>9.8191108283884089E-3</v>
-      </c>
-      <c r="M12">
+        <v>6.2195148054463107E-7</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="7"/>
-        <v>6.2195148054463107E-7</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="8"/>
         <v>7.0184130863002811E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6839,43 +6844,43 @@
         <v>315605</v>
       </c>
       <c r="F13">
+        <f t="shared" si="8"/>
+        <v>5.4028806067957782E-5</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="0"/>
-        <v>5.4028806067957782E-5</v>
-      </c>
-      <c r="G13">
+        <v>6.6538869789768861E-5</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
-        <v>6.6538869789768861E-5</v>
-      </c>
-      <c r="H13">
+        <v>-9.8259932079286578</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="2"/>
-        <v>-9.8259932079286578</v>
-      </c>
-      <c r="I13">
+        <v>-9.617724272943974</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="3"/>
-        <v>-9.617724272943974</v>
-      </c>
-      <c r="J13">
+        <v>8.8531493980996204E-3</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="4"/>
-        <v>8.8531493980996204E-3</v>
-      </c>
-      <c r="K13">
+        <v>1.1144550510603717E-2</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="5"/>
-        <v>1.1144550510603717E-2</v>
-      </c>
-      <c r="L13">
+        <v>9.9988499543516678E-3</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="6"/>
-        <v>9.9988499543516678E-3</v>
-      </c>
-      <c r="M13">
+        <v>5.4022592508627481E-7</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="7"/>
-        <v>5.4022592508627481E-7</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="8"/>
         <v>6.6531217516004192E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6892,43 +6897,43 @@
         <v>322450</v>
       </c>
       <c r="F14">
+        <f t="shared" si="8"/>
+        <v>7.4396523087144276E-5</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="0"/>
-        <v>7.4396523087144276E-5</v>
-      </c>
-      <c r="G14">
+        <v>8.9936424251821988E-5</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
-        <v>8.9936424251821988E-5</v>
-      </c>
-      <c r="H14">
+        <v>-9.5061013499169089</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="2"/>
-        <v>-9.5061013499169089</v>
-      </c>
-      <c r="I14">
+        <v>-9.3164075344520487</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="3"/>
-        <v>-9.3164075344520487</v>
-      </c>
-      <c r="J14">
+        <v>8.9182016106008205E-3</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="4"/>
-        <v>8.9182016106008205E-3</v>
-      </c>
-      <c r="K14">
+        <v>1.1386259128163902E-2</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="5"/>
-        <v>1.1386259128163902E-2</v>
-      </c>
-      <c r="L14">
+        <v>1.0152230369382361E-2</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="6"/>
-        <v>1.0152230369382361E-2</v>
-      </c>
-      <c r="M14">
+        <v>7.5529064106176207E-7</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="7"/>
-        <v>7.5529064106176207E-7</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="8"/>
         <v>9.1305529760300353E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6945,43 +6950,43 @@
         <v>327347</v>
       </c>
       <c r="F15">
+        <f t="shared" si="8"/>
+        <v>7.6321312726578902E-5</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="0"/>
-        <v>7.6321312726578902E-5</v>
-      </c>
-      <c r="G15">
+        <v>7.9426419059896682E-5</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
-        <v>7.9426419059896682E-5</v>
-      </c>
-      <c r="H15">
+        <v>-9.4805583306763204</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="2"/>
-        <v>-9.4805583306763204</v>
-      </c>
-      <c r="I15">
+        <v>-9.4406795113029354</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="3"/>
-        <v>-9.4406795113029354</v>
-      </c>
-      <c r="J15">
+        <v>8.8954580239720797E-3</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="4"/>
-        <v>8.8954580239720797E-3</v>
-      </c>
-      <c r="K15">
+        <v>1.1559180545284754E-2</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="5"/>
-        <v>1.1559180545284754E-2</v>
-      </c>
-      <c r="L15">
+        <v>1.0227319284628417E-2</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="6"/>
-        <v>1.0227319284628417E-2</v>
-      </c>
-      <c r="M15">
+        <v>7.8056243347669657E-7</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="7"/>
-        <v>7.8056243347669657E-7</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="8"/>
         <v>8.1231934736025934E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6998,43 +7003,43 @@
         <v>328135</v>
       </c>
       <c r="F16">
+        <f t="shared" si="8"/>
+        <v>8.4512337938968292E-5</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="0"/>
-        <v>8.4512337938968292E-5</v>
-      </c>
-      <c r="G16">
+        <v>1.4932878236091851E-4</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>1.4932878236091851E-4</v>
-      </c>
-      <c r="H16">
+        <v>-9.3786130231476807</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="2"/>
-        <v>-9.3786130231476807</v>
-      </c>
-      <c r="I16">
+        <v>-8.8093600899434854</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="3"/>
-        <v>-8.8093600899434854</v>
-      </c>
-      <c r="J16">
+        <v>8.9461759135573363E-3</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="4"/>
-        <v>8.9461759135573363E-3</v>
-      </c>
-      <c r="K16">
+        <v>1.158700616846042E-2</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="5"/>
-        <v>1.158700616846042E-2</v>
-      </c>
-      <c r="L16">
+        <v>1.0266591041008879E-2</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="6"/>
-        <v>1.0266591041008879E-2</v>
-      </c>
-      <c r="M16">
+        <v>8.6765361153892666E-7</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="7"/>
-        <v>8.6765361153892666E-7</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="8"/>
         <v>1.5330975391513708E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -7051,43 +7056,43 @@
         <v>330682</v>
       </c>
       <c r="F17">
+        <f t="shared" si="8"/>
+        <v>1.3602018539551271E-4</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="0"/>
-        <v>1.3602018539551271E-4</v>
-      </c>
-      <c r="G17">
+        <v>1.5422671932551515E-4</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="1"/>
-        <v>1.5422671932551515E-4</v>
-      </c>
-      <c r="H17">
+        <v>-8.902707261215852</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="2"/>
-        <v>-8.902707261215852</v>
-      </c>
-      <c r="I17">
+        <v>-8.777086834767216</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="3"/>
-        <v>-8.777086834767216</v>
-      </c>
-      <c r="J17">
+        <v>9.0750305213840709E-3</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="4"/>
-        <v>9.0750305213840709E-3</v>
-      </c>
-      <c r="K17">
+        <v>1.1676945079917803E-2</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="5"/>
-        <v>1.1676945079917803E-2</v>
-      </c>
-      <c r="L17">
+        <v>1.0375987800650938E-2</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="6"/>
-        <v>1.0375987800650938E-2</v>
-      </c>
-      <c r="M17">
+        <v>1.4113437843061187E-6</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="7"/>
-        <v>1.4113437843061187E-6</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="8"/>
         <v>1.6002545582559614E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -7104,43 +7109,43 @@
         <v>337180</v>
       </c>
       <c r="F18">
+        <f t="shared" si="8"/>
+        <v>1.3115491268830099E-4</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="0"/>
-        <v>1.3115491268830099E-4</v>
-      </c>
-      <c r="G18">
+        <v>1.69049172548787E-4</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
-        <v>1.69049172548787E-4</v>
-      </c>
-      <c r="H18">
+        <v>-8.9391313938069974</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="2"/>
-        <v>-8.9391313938069974</v>
-      </c>
-      <c r="I18">
+        <v>-8.685320923535242</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="3"/>
-        <v>-8.685320923535242</v>
-      </c>
-      <c r="J18">
+        <v>9.0587366085754222E-3</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="4"/>
-        <v>9.0587366085754222E-3</v>
-      </c>
-      <c r="K18">
+        <v>1.1906400536003425E-2</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="5"/>
-        <v>1.1906400536003425E-2</v>
-      </c>
-      <c r="L18">
+        <v>1.0482568572289424E-2</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="6"/>
-        <v>1.0482568572289424E-2</v>
-      </c>
-      <c r="M18">
+        <v>1.3748403658477474E-6</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="7"/>
-        <v>1.3748403658477474E-6</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="8"/>
         <v>1.7720695433314466E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -7157,43 +7162,43 @@
         <v>344739</v>
       </c>
       <c r="F19">
+        <f t="shared" si="8"/>
+        <v>1.5904314173480154E-4</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="0"/>
-        <v>1.5904314173480154E-4</v>
-      </c>
-      <c r="G19">
+        <v>2.2625812571249555E-4</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="1"/>
-        <v>2.2625812571249555E-4</v>
-      </c>
-      <c r="H19">
+        <v>-8.7463350608824033</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="2"/>
-        <v>-8.7463350608824033</v>
-      </c>
-      <c r="I19">
+        <v>-8.3938340612777971</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="3"/>
-        <v>-8.3938340612777971</v>
-      </c>
-      <c r="J19">
+        <v>9.0225536298478813E-3</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="4"/>
-        <v>9.0225536298478813E-3</v>
-      </c>
-      <c r="K19">
+        <v>1.217332171060349E-2</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="5"/>
-        <v>1.217332171060349E-2</v>
-      </c>
-      <c r="L19">
+        <v>1.0597937670225686E-2</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="6"/>
-        <v>1.0597937670225686E-2</v>
-      </c>
-      <c r="M19">
+        <v>1.6855293029822961E-6</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="7"/>
-        <v>1.6855293029822961E-6</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="8"/>
         <v>2.3978695136831153E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -7210,43 +7215,43 @@
         <v>355351</v>
       </c>
       <c r="F20">
+        <f t="shared" si="8"/>
+        <v>1.8294225863590044E-4</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="0"/>
-        <v>1.8294225863590044E-4</v>
-      </c>
-      <c r="G20">
+        <v>2.1387304383553162E-4</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="1"/>
-        <v>2.1387304383553162E-4</v>
-      </c>
-      <c r="H20">
+        <v>-8.6063399814916171</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="2"/>
-        <v>-8.6063399814916171</v>
-      </c>
-      <c r="I20">
+        <v>-8.4501279720916678</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="3"/>
-        <v>-8.4501279720916678</v>
-      </c>
-      <c r="J20">
+        <v>9.0246675181573366E-3</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="4"/>
-        <v>9.0246675181573366E-3</v>
-      </c>
-      <c r="K20">
+        <v>1.2548049519156989E-2</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="5"/>
-        <v>1.2548049519156989E-2</v>
-      </c>
-      <c r="L20">
+        <v>1.0786358518657162E-2</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="6"/>
-        <v>1.0786358518657162E-2</v>
-      </c>
-      <c r="M20">
+        <v>1.9732807898597265E-6</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="7"/>
-        <v>1.9732807898597265E-6</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="8"/>
         <v>2.3069113282865232E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -7263,43 +7268,43 @@
         <v>364044</v>
       </c>
       <c r="F21">
+        <f t="shared" si="8"/>
+        <v>2.1224699388078223E-4</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="0"/>
-        <v>2.1224699388078223E-4</v>
-      </c>
-      <c r="G21">
+        <v>2.1975365615145421E-4</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="1"/>
-        <v>2.1975365615145421E-4</v>
-      </c>
-      <c r="H21">
+        <v>-8.4577598959789704</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="2"/>
-        <v>-8.4577598959789704</v>
-      </c>
-      <c r="I21">
+        <v>-8.4230033837605838</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="3"/>
-        <v>-8.4230033837605838</v>
-      </c>
-      <c r="J21">
+        <v>9.0144992524936046E-3</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="4"/>
-        <v>9.0144992524936046E-3</v>
-      </c>
-      <c r="K21">
+        <v>1.2855014166702743E-2</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="5"/>
-        <v>1.2855014166702743E-2</v>
-      </c>
-      <c r="L21">
+        <v>1.0934756709598174E-2</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="6"/>
-        <v>1.0934756709598174E-2</v>
-      </c>
-      <c r="M21">
+        <v>2.3208692404299259E-6</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="7"/>
-        <v>2.3208692404299259E-6</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="8"/>
         <v>2.4029527660608442E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -7316,43 +7321,43 @@
         <v>363505</v>
       </c>
       <c r="F22">
+        <f t="shared" si="8"/>
+        <v>2.2709939835607152E-4</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="0"/>
-        <v>2.2709939835607152E-4</v>
-      </c>
-      <c r="G22">
+        <v>2.0632453473817418E-4</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="1"/>
-        <v>2.0632453473817418E-4</v>
-      </c>
-      <c r="H22">
+        <v>-8.3901227581029829</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="2"/>
-        <v>-8.3901227581029829</v>
-      </c>
-      <c r="I22">
+        <v>-8.4860602174829829</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="3"/>
-        <v>-8.4860602174829829</v>
-      </c>
-      <c r="J22">
+        <v>9.1043780802496505E-3</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="4"/>
-        <v>9.1043780802496505E-3</v>
-      </c>
-      <c r="K22">
+        <v>1.2835981157956953E-2</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="5"/>
-        <v>1.2835981157956953E-2</v>
-      </c>
-      <c r="L22">
+        <v>1.0970179619103302E-2</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="6"/>
-        <v>1.0970179619103302E-2</v>
-      </c>
-      <c r="M22">
+        <v>2.4913211913563977E-6</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="7"/>
-        <v>2.4913211913563977E-6</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="8"/>
         <v>2.2634172059056894E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -7369,43 +7374,43 @@
         <v>366130</v>
       </c>
       <c r="F23">
+        <f t="shared" si="8"/>
+        <v>2.8305915770864438E-4</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="0"/>
-        <v>2.8305915770864438E-4</v>
-      </c>
-      <c r="G23">
+        <v>1.6114494851555459E-4</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="1"/>
-        <v>1.6114494851555459E-4</v>
-      </c>
-      <c r="H23">
+        <v>-8.1698546443266693</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="2"/>
-        <v>-8.1698546443266693</v>
-      </c>
-      <c r="I23">
+        <v>-8.7332062966691328</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="3"/>
-        <v>-8.7332062966691328</v>
-      </c>
-      <c r="J23">
+        <v>9.3213833735648448E-3</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="4"/>
-        <v>9.3213833735648448E-3</v>
-      </c>
-      <c r="K23">
+        <v>1.2928674382368272E-2</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="5"/>
-        <v>1.2928674382368272E-2</v>
-      </c>
-      <c r="L23">
+        <v>1.1125028877966559E-2</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="6"/>
-        <v>1.1125028877966559E-2</v>
-      </c>
-      <c r="M23">
+        <v>3.1490413036815594E-6</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="7"/>
-        <v>3.1490413036815594E-6</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="8"/>
         <v>1.7927422057739792E-6</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7422,43 +7427,43 @@
         <v>372752</v>
       </c>
       <c r="F24">
+        <f t="shared" si="8"/>
+        <v>2.3661705220222871E-4</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="0"/>
-        <v>2.3661705220222871E-4</v>
-      </c>
-      <c r="G24">
+        <v>1.8242692192127743E-4</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="1"/>
-        <v>1.8242692192127743E-4</v>
-      </c>
-      <c r="H24">
+        <v>-8.3490675371563938</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="2"/>
-        <v>-8.3490675371563938</v>
-      </c>
-      <c r="I24">
+        <v>-8.6091608929629757</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="3"/>
-        <v>-8.6091608929629757</v>
-      </c>
-      <c r="J24">
+        <v>9.5858971493969266E-3</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="4"/>
-        <v>9.5858971493969266E-3</v>
-      </c>
-      <c r="K24">
+        <v>1.3162508489816564E-2</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="5"/>
-        <v>1.3162508489816564E-2</v>
-      </c>
-      <c r="L24">
+        <v>1.1374202819606745E-2</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="6"/>
-        <v>1.1374202819606745E-2</v>
-      </c>
-      <c r="M24">
+        <v>2.6913303423256263E-6</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="7"/>
-        <v>2.6913303423256263E-6</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="8"/>
         <v>2.0749608096891732E-6</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7475,43 +7480,43 @@
         <v>375784</v>
       </c>
       <c r="F25">
+        <f t="shared" si="8"/>
+        <v>2.6689232150791021E-4</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="0"/>
-        <v>2.6689232150791021E-4</v>
-      </c>
-      <c r="G25">
+        <v>2.528048027590318E-4</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="1"/>
-        <v>2.528048027590318E-4</v>
-      </c>
-      <c r="H25">
+        <v>-8.2286652711399473</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="2"/>
-        <v>-8.2286652711399473</v>
-      </c>
-      <c r="I25">
+        <v>-8.2828928976163727</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="3"/>
-        <v>-8.2828928976163727</v>
-      </c>
-      <c r="J25">
+        <v>9.8282073830588887E-3</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="4"/>
-        <v>9.8282073830588887E-3</v>
-      </c>
-      <c r="K25">
+        <v>1.3269573577974706E-2</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="5"/>
-        <v>1.3269573577974706E-2</v>
-      </c>
-      <c r="L25">
+        <v>1.1548890480516797E-2</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="6"/>
-        <v>1.1548890480516797E-2</v>
-      </c>
-      <c r="M25">
+        <v>3.0823101911857326E-6</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="7"/>
-        <v>3.0823101911857326E-6</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="8"/>
         <v>2.919614980012709E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -7528,43 +7533,43 @@
         <v>379706</v>
       </c>
       <c r="F26">
+        <f t="shared" si="8"/>
+        <v>2.5711360313526455E-4</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="0"/>
-        <v>2.5711360313526455E-4</v>
-      </c>
-      <c r="G26">
+        <v>2.5546080388511109E-4</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="1"/>
-        <v>2.5546080388511109E-4</v>
-      </c>
-      <c r="H26">
+        <v>-8.2659925351922094</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="2"/>
-        <v>-8.2659925351922094</v>
-      </c>
-      <c r="I26">
+        <v>-8.2724415695405682</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="3"/>
-        <v>-8.2724415695405682</v>
-      </c>
-      <c r="J26">
+        <v>1.0141988643358791E-2</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="4"/>
-        <v>1.0141988643358791E-2</v>
-      </c>
-      <c r="K26">
+        <v>1.3408066083171353E-2</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="5"/>
-        <v>1.3408066083171353E-2</v>
-      </c>
-      <c r="L26">
+        <v>1.1775027363265071E-2</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="6"/>
-        <v>1.1775027363265071E-2</v>
-      </c>
-      <c r="M26">
+        <v>3.0275197123854163E-6</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="7"/>
-        <v>3.0275197123854163E-6</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="8"/>
         <v>3.0080579559888751E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -7581,43 +7586,43 @@
         <v>380426</v>
       </c>
       <c r="F27">
+        <f t="shared" si="8"/>
+        <v>2.5938930671246771E-4</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="0"/>
-        <v>2.5938930671246771E-4</v>
-      </c>
-      <c r="G27">
+        <v>2.5497731490486979E-4</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="1"/>
-        <v>2.5497731490486979E-4</v>
-      </c>
-      <c r="H27">
+        <v>-8.2571805100909668</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="2"/>
-        <v>-8.2571805100909668</v>
-      </c>
-      <c r="I27">
+        <v>-8.274335977920499</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="3"/>
-        <v>-8.274335977920499</v>
-      </c>
-      <c r="J27">
+        <v>1.0528891923355842E-2</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="4"/>
-        <v>1.0528891923355842E-2</v>
-      </c>
-      <c r="K27">
+        <v>1.3433490510438458E-2</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="5"/>
-        <v>1.3433490510438458E-2</v>
-      </c>
-      <c r="L27">
+        <v>1.198119121689715E-2</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="6"/>
-        <v>1.198119121689715E-2</v>
-      </c>
-      <c r="M27">
+        <v>3.1077928833404592E-6</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="7"/>
-        <v>3.1077928833404592E-6</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="8"/>
         <v>3.0549319658462448E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -7634,43 +7639,43 @@
         <v>379086</v>
       </c>
       <c r="F28">
+        <f t="shared" si="8"/>
+        <v>2.714417557424218E-4</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="0"/>
-        <v>2.714417557424218E-4</v>
-      </c>
-      <c r="G28">
+        <v>2.6906823253826308E-4</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="1"/>
-        <v>2.6906823253826308E-4</v>
-      </c>
-      <c r="H28">
+        <v>-8.2117629692568546</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="2"/>
-        <v>-8.2117629692568546</v>
-      </c>
-      <c r="I28">
+        <v>-8.2205455579682081</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="3"/>
-        <v>-8.2205455579682081</v>
-      </c>
-      <c r="J28">
+        <v>1.0800364557783283E-2</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="4"/>
-        <v>1.0800364557783283E-2</v>
-      </c>
-      <c r="K28">
+        <v>1.3386172826358012E-2</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="5"/>
-        <v>1.3386172826358012E-2</v>
-      </c>
-      <c r="L28">
+        <v>1.2093268692070648E-2</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="6"/>
-        <v>1.2093268692070648E-2</v>
-      </c>
-      <c r="M28">
+        <v>3.2826180864405176E-6</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="7"/>
-        <v>3.2826180864405176E-6</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="8"/>
         <v>3.2539144325857615E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -7687,43 +7692,43 @@
         <v>380269</v>
       </c>
       <c r="F29">
+        <f t="shared" si="8"/>
+        <v>2.7569124277370836E-4</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="0"/>
-        <v>2.7569124277370836E-4</v>
-      </c>
-      <c r="G29">
+        <v>3.3134439041836172E-4</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="1"/>
-        <v>3.3134439041836172E-4</v>
-      </c>
-      <c r="H29">
+        <v>-8.1962290040454224</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="2"/>
-        <v>-8.1962290040454224</v>
-      </c>
-      <c r="I29">
+        <v>-8.0123522690486357</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="3"/>
-        <v>-8.0123522690486357</v>
-      </c>
-      <c r="J29">
+        <v>1.0913727604568461E-2</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="4"/>
-        <v>1.0913727604568461E-2</v>
-      </c>
-      <c r="K29">
+        <v>1.3427946572826047E-2</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="5"/>
-        <v>1.3427946572826047E-2</v>
-      </c>
-      <c r="L29">
+        <v>1.2170837088697255E-2</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="6"/>
-        <v>1.2170837088697255E-2</v>
-      </c>
-      <c r="M29">
+        <v>3.3553932025792886E-6</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="7"/>
-        <v>3.3553932025792886E-6</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="8"/>
         <v>4.0327385960355798E-6</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -7740,43 +7745,43 @@
         <v>384015</v>
       </c>
       <c r="F30">
+        <f t="shared" si="8"/>
+        <v>3.1271648254256731E-4</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="0"/>
-        <v>3.1271648254256731E-4</v>
-      </c>
-      <c r="G30">
+        <v>3.6456909235316328E-4</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="1"/>
-        <v>3.6456909235316328E-4</v>
-      </c>
-      <c r="H30">
+        <v>-8.070213584488064</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="2"/>
-        <v>-8.070213584488064</v>
-      </c>
-      <c r="I30">
+        <v>-7.9167944706976403</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="3"/>
-        <v>-7.9167944706976403</v>
-      </c>
-      <c r="J30">
+        <v>1.1003112677390911E-2</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="4"/>
-        <v>1.1003112677390911E-2</v>
-      </c>
-      <c r="K30">
+        <v>1.3560224218024068E-2</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="5"/>
-        <v>1.3560224218024068E-2</v>
-      </c>
-      <c r="L30">
+        <v>1.228166844770749E-2</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="6"/>
-        <v>1.228166844770749E-2</v>
-      </c>
-      <c r="M30">
+        <v>3.8406801567211189E-6</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="7"/>
-        <v>3.8406801567211189E-6</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="8"/>
         <v>4.4775167185632038E-6</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -7793,43 +7798,43 @@
         <v>387316</v>
       </c>
       <c r="F31">
+        <f t="shared" si="8"/>
+        <v>3.2827740535010101E-4</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="0"/>
-        <v>3.2827740535010101E-4</v>
-      </c>
-      <c r="G31">
+        <v>2.8916956696857347E-4</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="1"/>
-        <v>2.8916956696857347E-4</v>
-      </c>
-      <c r="H31">
+        <v>-8.0216515590048623</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="2"/>
-        <v>-8.0216515590048623</v>
-      </c>
-      <c r="I31">
+        <v>-8.1484973049991662</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="3"/>
-        <v>-8.1484973049991662</v>
-      </c>
-      <c r="J31">
+        <v>1.1280587520229873E-2</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="4"/>
-        <v>1.1280587520229873E-2</v>
-      </c>
-      <c r="K31">
+        <v>1.3676788154702838E-2</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="5"/>
-        <v>1.3676788154702838E-2</v>
-      </c>
-      <c r="L31">
+        <v>1.2478687837466355E-2</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="6"/>
-        <v>1.2478687837466355E-2</v>
-      </c>
-      <c r="M31">
+        <v>4.0964712654573181E-6</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="7"/>
-        <v>4.0964712654573181E-6</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="8"/>
         <v>3.6084567582961506E-6</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -7846,43 +7851,43 @@
         <v>384364</v>
       </c>
       <c r="F32">
+        <f t="shared" si="8"/>
+        <v>3.7190760809143895E-4</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="0"/>
-        <v>3.7190760809143895E-4</v>
-      </c>
-      <c r="G32">
+        <v>4.0586527354278759E-4</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="1"/>
-        <v>4.0586527354278759E-4</v>
-      </c>
-      <c r="H32">
+        <v>-7.8968650998845016</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="2"/>
-        <v>-7.8968650998845016</v>
-      </c>
-      <c r="I32">
+        <v>-7.8094892919977035</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="3"/>
-        <v>-7.8094892919977035</v>
-      </c>
-      <c r="J32">
+        <v>1.1658232895222009E-2</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="4"/>
-        <v>1.1658232895222009E-2</v>
-      </c>
-      <c r="K32">
+        <v>1.3572548002907707E-2</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="5"/>
-        <v>1.3572548002907707E-2</v>
-      </c>
-      <c r="L32">
+        <v>1.2615390449064859E-2</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="6"/>
-        <v>1.2615390449064859E-2</v>
-      </c>
-      <c r="M32">
+        <v>4.691759687051296E-6</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="7"/>
-        <v>4.691759687051296E-6</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="8"/>
         <v>5.1201488954587788E-6</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -7899,43 +7904,43 @@
         <v>370395</v>
       </c>
       <c r="F33">
+        <f t="shared" si="8"/>
+        <v>3.8868268533707355E-4</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="0"/>
-        <v>3.8868268533707355E-4</v>
-      </c>
-      <c r="G33">
+        <v>3.5637630097598512E-4</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="1"/>
-        <v>3.5637630097598512E-4</v>
-      </c>
-      <c r="H33">
+        <v>-7.8527472661533801</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="2"/>
-        <v>-7.8527472661533801</v>
-      </c>
-      <c r="I33">
+        <v>-7.9395233601565929</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="3"/>
-        <v>-7.9395233601565929</v>
-      </c>
-      <c r="J33">
+        <v>1.2068126639314598E-2</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="4"/>
-        <v>1.2068126639314598E-2</v>
-      </c>
-      <c r="K33">
+        <v>1.3079278802221333E-2</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="5"/>
-        <v>1.3079278802221333E-2</v>
-      </c>
-      <c r="L33">
+        <v>1.2573702720767965E-2</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="6"/>
-        <v>1.2573702720767965E-2</v>
-      </c>
-      <c r="M33">
+        <v>4.8871805381381603E-6</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="7"/>
-        <v>4.8871805381381603E-6</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="8"/>
         <v>4.4809696651989675E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -7952,43 +7957,43 @@
         <v>352741</v>
       </c>
       <c r="F34">
+        <f t="shared" si="8"/>
+        <v>3.7242110715122518E-4</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="0"/>
-        <v>3.7242110715122518E-4</v>
-      </c>
-      <c r="G34">
+        <v>4.5926047723400456E-4</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="1"/>
-        <v>4.5926047723400456E-4</v>
-      </c>
-      <c r="H34">
+        <v>-7.8954853354585568</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="2"/>
-        <v>-7.8954853354585568</v>
-      </c>
-      <c r="I34">
+        <v>-7.6858930203372076</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="3"/>
-        <v>-7.6858930203372076</v>
-      </c>
-      <c r="J34">
+        <v>1.2512212912558671E-2</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="4"/>
-        <v>1.2512212912558671E-2</v>
-      </c>
-      <c r="K34">
+        <v>1.2455885970313732E-2</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="5"/>
-        <v>1.2455885970313732E-2</v>
-      </c>
-      <c r="L34">
+        <v>1.2484049441436201E-2</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="6"/>
-        <v>1.2484049441436201E-2</v>
-      </c>
-      <c r="M34">
+        <v>4.6493235147103041E-6</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="7"/>
-        <v>4.6493235147103041E-6</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="8"/>
         <v>5.7334305042868974E-6</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -8005,43 +8010,43 @@
         <v>345864</v>
       </c>
       <c r="F35">
+        <f t="shared" si="8"/>
+        <v>4.3800507088797517E-4</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="0"/>
-        <v>4.3800507088797517E-4</v>
-      </c>
-      <c r="G35">
+        <v>4.5682696088635997E-4</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="1"/>
-        <v>4.5682696088635997E-4</v>
-      </c>
-      <c r="H35">
+        <v>-7.7332800702850388</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="2"/>
-        <v>-7.7332800702850388</v>
-      </c>
-      <c r="I35">
+        <v>-7.6912058801593401</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="3"/>
-        <v>-7.6912058801593401</v>
-      </c>
-      <c r="J35">
+        <v>1.2998962698033724E-2</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="4"/>
-        <v>1.2998962698033724E-2</v>
-      </c>
-      <c r="K35">
+        <v>1.2213047378208343E-2</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="5"/>
-        <v>1.2213047378208343E-2</v>
-      </c>
-      <c r="L35">
+        <v>1.2606005038121034E-2</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="6"/>
-        <v>1.2606005038121034E-2</v>
-      </c>
-      <c r="M35">
+        <v>5.5214941303363755E-6</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="7"/>
-        <v>5.5214941303363755E-6</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="8"/>
         <v>5.7587629704829748E-6</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -8062,39 +8067,39 @@
         <v>4.5823328384262638E-4</v>
       </c>
       <c r="G36">
+        <f t="shared" si="0"/>
+        <v>4.6677235455344971E-4</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="1"/>
-        <v>4.6677235455344971E-4</v>
-      </c>
-      <c r="H36">
+        <v>-7.688132150158304</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="2"/>
-        <v>-7.688132150158304</v>
-      </c>
-      <c r="I36">
+        <v>-7.6696688826273025</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="3"/>
-        <v>-7.6696688826273025</v>
-      </c>
-      <c r="J36">
+        <v>1.3603673623113063E-2</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="4"/>
-        <v>1.3603673623113063E-2</v>
-      </c>
-      <c r="K36">
+        <v>1.240673207759733E-2</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="5"/>
-        <v>1.240673207759733E-2</v>
-      </c>
-      <c r="L36">
+        <v>1.3005202850355196E-2</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="6"/>
-        <v>1.3005202850355196E-2</v>
-      </c>
-      <c r="M36">
+        <v>5.9594168091577467E-6</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="7"/>
-        <v>5.9594168091577467E-6</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="8"/>
         <v>6.0704691559055305E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -8111,43 +8116,43 @@
         <v>358892</v>
       </c>
       <c r="F37">
+        <f t="shared" si="8"/>
+        <v>4.7589294674855049E-4</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="0"/>
-        <v>4.7589294674855049E-4</v>
-      </c>
-      <c r="G37">
+        <v>5.8234789295944184E-4</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="1"/>
-        <v>5.8234789295944184E-4</v>
-      </c>
-      <c r="H37">
+        <v>-7.6503176308158132</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="2"/>
-        <v>-7.6503176308158132</v>
-      </c>
-      <c r="I37">
+        <v>-7.4484425345908862</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="3"/>
-        <v>-7.4484425345908862</v>
-      </c>
-      <c r="J37">
+        <v>1.4298510253415246E-2</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="4"/>
-        <v>1.4298510253415246E-2</v>
-      </c>
-      <c r="K37">
+        <v>1.2673088264924793E-2</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="5"/>
-        <v>1.2673088264924793E-2</v>
-      </c>
-      <c r="L37">
+        <v>1.3485799259170018E-2</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="6"/>
-        <v>1.3485799259170018E-2</v>
-      </c>
-      <c r="M37">
+        <v>6.4177967487058396E-6</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="7"/>
-        <v>6.4177967487058396E-6</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="8"/>
         <v>7.853426783451662E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -8164,43 +8169,43 @@
         <v>368598</v>
       </c>
       <c r="F38">
+        <f t="shared" si="8"/>
+        <v>5.0707835760534583E-4</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="0"/>
-        <v>5.0707835760534583E-4</v>
-      </c>
-      <c r="G38">
+        <v>6.7281971144715928E-4</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="1"/>
-        <v>6.7281971144715928E-4</v>
-      </c>
-      <c r="H38">
+        <v>-7.5868450148251076</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="2"/>
-        <v>-7.5868450148251076</v>
-      </c>
-      <c r="I38">
+        <v>-7.3040331521021837</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="3"/>
-        <v>-7.3040331521021837</v>
-      </c>
-      <c r="J38">
+        <v>1.4879736959465451E-2</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="4"/>
-        <v>1.4879736959465451E-2</v>
-      </c>
-      <c r="K38">
+        <v>1.3015823669167183E-2</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="5"/>
-        <v>1.3015823669167183E-2</v>
-      </c>
-      <c r="L38">
+        <v>1.3947780314316316E-2</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="6"/>
-        <v>1.3947780314316316E-2</v>
-      </c>
-      <c r="M38">
+        <v>7.0726175340236916E-6</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="7"/>
-        <v>7.0726175340236916E-6</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="8"/>
         <v>9.3843415264066717E-6</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -8217,43 +8222,43 @@
         <v>382932</v>
       </c>
       <c r="F39">
+        <f t="shared" si="8"/>
+        <v>5.6260381686062955E-4</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="0"/>
-        <v>5.6260381686062955E-4</v>
-      </c>
-      <c r="G39">
+        <v>7.7037176313287997E-4</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="1"/>
-        <v>7.7037176313287997E-4</v>
-      </c>
-      <c r="H39">
+        <v>-7.482934877607625</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="2"/>
-        <v>-7.482934877607625</v>
-      </c>
-      <c r="I39">
+        <v>-7.1686373503679555</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="3"/>
-        <v>-7.1686373503679555</v>
-      </c>
-      <c r="J39">
+        <v>1.5001895016005297E-2</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="4"/>
-        <v>1.5001895016005297E-2</v>
-      </c>
-      <c r="K39">
+        <v>1.3521981642009798E-2</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="5"/>
-        <v>1.3521981642009798E-2</v>
-      </c>
-      <c r="L39">
+        <v>1.4261938329007549E-2</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="6"/>
-        <v>1.4261938329007549E-2</v>
-      </c>
-      <c r="M39">
+        <v>8.0238209397305566E-6</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="7"/>
-        <v>8.0238209397305566E-6</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="8"/>
         <v>1.0986994576209945E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -8270,43 +8275,43 @@
         <v>398964</v>
       </c>
       <c r="F40">
+        <f t="shared" si="8"/>
+        <v>6.215658226695729E-4</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="0"/>
-        <v>6.215658226695729E-4</v>
-      </c>
-      <c r="G40">
+        <v>7.8202544590489362E-4</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="1"/>
-        <v>7.8202544590489362E-4</v>
-      </c>
-      <c r="H40">
+        <v>-7.3832687432577551</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="2"/>
-        <v>-7.3832687432577551</v>
-      </c>
-      <c r="I40">
+        <v>-7.1536232784280376</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="3"/>
-        <v>-7.1536232784280376</v>
-      </c>
-      <c r="J40">
+        <v>1.4745543626419215E-2</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="4"/>
-        <v>1.4745543626419215E-2</v>
-      </c>
-      <c r="K40">
+        <v>1.4088098889157337E-2</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="5"/>
-        <v>1.4088098889157337E-2</v>
-      </c>
-      <c r="L40">
+        <v>1.4416821257788277E-2</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="6"/>
-        <v>1.4416821257788277E-2</v>
-      </c>
-      <c r="M40">
+        <v>8.9610033653773562E-6</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="7"/>
-        <v>8.9610033653773562E-6</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="8"/>
         <v>1.1274321072653027E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -8323,43 +8328,43 @@
         <v>407987</v>
       </c>
       <c r="F41">
+        <f t="shared" si="8"/>
+        <v>6.6235260775843565E-4</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="0"/>
-        <v>6.6235260775843565E-4</v>
-      </c>
-      <c r="G41">
+        <v>7.3286648839301254E-4</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="1"/>
-        <v>7.3286648839301254E-4</v>
-      </c>
-      <c r="H41">
+        <v>-7.3197125037111803</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="2"/>
-        <v>-7.3197125037111803</v>
-      </c>
-      <c r="I41">
+        <v>-7.2185470167428862</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="3"/>
-        <v>-7.2185470167428862</v>
-      </c>
-      <c r="J41">
+        <v>1.4373329555696628E-2</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="4"/>
-        <v>1.4373329555696628E-2</v>
-      </c>
-      <c r="K41">
+        <v>1.4406716399200515E-2</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="5"/>
-        <v>1.4406716399200515E-2</v>
-      </c>
-      <c r="L41">
+        <v>1.4390022977448572E-2</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="6"/>
-        <v>1.4390022977448572E-2</v>
-      </c>
-      <c r="M41">
+        <v>9.5312692448168705E-6</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="7"/>
-        <v>9.5312692448168705E-6</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="8"/>
         <v>1.0545965607377499E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -8376,43 +8381,43 @@
         <v>409883</v>
       </c>
       <c r="F42">
+        <f t="shared" si="8"/>
+        <v>7.2128843852580502E-4</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="0"/>
-        <v>7.2128843852580502E-4</v>
-      </c>
-      <c r="G42">
+        <v>8.8073913775394439E-4</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="1"/>
-        <v>8.8073913775394439E-4</v>
-      </c>
-      <c r="H42">
+        <v>-7.2344714472455154</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="2"/>
-        <v>-7.2344714472455154</v>
-      </c>
-      <c r="I42">
+        <v>-7.0347490737693681</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="3"/>
-        <v>-7.0347490737693681</v>
-      </c>
-      <c r="J42">
+        <v>1.4054579886377424E-2</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="4"/>
-        <v>1.4054579886377424E-2</v>
-      </c>
-      <c r="K42">
+        <v>1.4473667391003892E-2</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="5"/>
-        <v>1.4473667391003892E-2</v>
-      </c>
-      <c r="L42">
+        <v>1.4264123638690658E-2</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="6"/>
-        <v>1.4264123638690658E-2</v>
-      </c>
-      <c r="M42">
+        <v>1.0288547466290209E-5</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="7"/>
-        <v>1.0288547466290209E-5</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="8"/>
         <v>1.2562971954356066E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -8429,43 +8434,43 @@
         <v>412458</v>
       </c>
       <c r="F43">
+        <f t="shared" si="8"/>
+        <v>7.5384713320311323E-4</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="0"/>
-        <v>7.5384713320311323E-4</v>
-      </c>
-      <c r="G43">
+        <v>1.0376814124104757E-3</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="1"/>
-        <v>1.0376814124104757E-3</v>
-      </c>
-      <c r="H43">
+        <v>-7.1903209516210049</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="2"/>
-        <v>-7.1903209516210049</v>
-      </c>
-      <c r="I43">
+        <v>-6.8707664658094352</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="3"/>
-        <v>-6.8707664658094352</v>
-      </c>
-      <c r="J43">
+        <v>1.3815988244559102E-2</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="4"/>
-        <v>1.3815988244559102E-2</v>
-      </c>
-      <c r="K43">
+        <v>1.4564595030188329E-2</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="5"/>
-        <v>1.4564595030188329E-2</v>
-      </c>
-      <c r="L43">
+        <v>1.4190291637373715E-2</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="6"/>
-        <v>1.4190291637373715E-2</v>
-      </c>
-      <c r="M43">
+        <v>1.0697310670150287E-5</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="7"/>
-        <v>1.0697310670150287E-5</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="8"/>
         <v>1.4725001868786518E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -8482,43 +8487,43 @@
         <v>416169</v>
       </c>
       <c r="F44">
+        <f t="shared" si="8"/>
+        <v>7.9991774857048601E-4</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="0"/>
-        <v>7.9991774857048601E-4</v>
-      </c>
-      <c r="G44">
+        <v>1.0428455747544868E-3</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="1"/>
-        <v>1.0428455747544868E-3</v>
-      </c>
-      <c r="H44">
+        <v>-7.1310016498689901</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="2"/>
-        <v>-7.1310016498689901</v>
-      </c>
-      <c r="I44">
+        <v>-6.8658021726458065</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="3"/>
-        <v>-6.8658021726458065</v>
-      </c>
-      <c r="J44">
+        <v>1.3656813997841273E-2</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="4"/>
-        <v>1.3656813997841273E-2</v>
-      </c>
-      <c r="K44">
+        <v>1.4695636765727533E-2</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="5"/>
-        <v>1.4695636765727533E-2</v>
-      </c>
-      <c r="L44">
+        <v>1.4176225381784403E-2</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="6"/>
-        <v>1.4176225381784403E-2</v>
-      </c>
-      <c r="M44">
+        <v>1.1339814290624759E-5</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="7"/>
-        <v>1.1339814290624759E-5</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="8"/>
         <v>1.47836139061161E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -8535,43 +8540,43 @@
         <v>419155</v>
       </c>
       <c r="F45">
+        <f t="shared" si="8"/>
+        <v>9.1476060677885755E-4</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="0"/>
-        <v>9.1476060677885755E-4</v>
-      </c>
-      <c r="G45">
+        <v>1.1714043730839427E-3</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="1"/>
-        <v>1.1714043730839427E-3</v>
-      </c>
-      <c r="H45">
+        <v>-6.9968481588560332</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="2"/>
-        <v>-6.9968481588560332</v>
-      </c>
-      <c r="I45">
+        <v>-6.7495519311040679</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="3"/>
-        <v>-6.7495519311040679</v>
-      </c>
-      <c r="J45">
+        <v>1.2498912389034944E-2</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="4"/>
-        <v>1.2498912389034944E-2</v>
-      </c>
-      <c r="K45">
+        <v>1.4801077515476943E-2</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="5"/>
-        <v>1.4801077515476943E-2</v>
-      </c>
-      <c r="L45">
+        <v>1.3649994952255943E-2</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="6"/>
-        <v>1.3649994952255943E-2</v>
-      </c>
-      <c r="M45">
+        <v>1.2486477665053989E-5</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="7"/>
-        <v>1.2486477665053989E-5</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="8"/>
         <v>1.5989663779646356E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -8588,43 +8593,43 @@
         <v>422240</v>
       </c>
       <c r="F46">
+        <f t="shared" si="8"/>
+        <v>9.6849930260322823E-4</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="0"/>
-        <v>9.6849930260322823E-4</v>
-      </c>
-      <c r="G46">
+        <v>1.2907351269420234E-3</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="1"/>
-        <v>1.2907351269420234E-3</v>
-      </c>
-      <c r="H46">
+        <v>-6.9397627951967511</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="2"/>
-        <v>-6.9397627951967511</v>
-      </c>
-      <c r="I46">
+        <v>-6.652543357073907</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="3"/>
-        <v>-6.652543357073907</v>
-      </c>
-      <c r="J46">
+        <v>1.1980639437018156E-2</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="4"/>
-        <v>1.1980639437018156E-2</v>
-      </c>
-      <c r="K46">
+        <v>1.4910014123975581E-2</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="5"/>
-        <v>1.4910014123975581E-2</v>
-      </c>
-      <c r="L46">
+        <v>1.3445326780496869E-2</v>
+      </c>
+      <c r="M46">
         <f t="shared" si="6"/>
-        <v>1.3445326780496869E-2</v>
-      </c>
-      <c r="M46">
+        <v>1.3021789610183725E-5</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="7"/>
-        <v>1.3021789610183725E-5</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="8"/>
         <v>1.7354355568801612E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -8641,43 +8646,43 @@
         <v>422964</v>
       </c>
       <c r="F47">
+        <f t="shared" si="8"/>
+        <v>1.1475067807218862E-3</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="0"/>
-        <v>1.1475067807218862E-3</v>
-      </c>
-      <c r="G47">
+        <v>1.338175352985124E-3</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="1"/>
-        <v>1.338175352985124E-3</v>
-      </c>
-      <c r="H47">
+        <v>-6.7701637069212062</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="2"/>
-        <v>-6.7701637069212062</v>
-      </c>
-      <c r="I47">
+        <v>-6.6164482698204994</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="3"/>
-        <v>-6.6164482698204994</v>
-      </c>
-      <c r="J47">
+        <v>1.2572389295090615E-2</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="4"/>
-        <v>1.2572389295090615E-2</v>
-      </c>
-      <c r="K47">
+        <v>1.4935579798060837E-2</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="5"/>
-        <v>1.4935579798060837E-2</v>
-      </c>
-      <c r="L47">
+        <v>1.3753984546575726E-2</v>
+      </c>
+      <c r="M47">
         <f t="shared" si="6"/>
-        <v>1.3753984546575726E-2</v>
-      </c>
-      <c r="M47">
+        <v>1.5782790529139683E-5</v>
+      </c>
+      <c r="N47">
         <f t="shared" si="7"/>
-        <v>1.5782790529139683E-5</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="8"/>
         <v>1.8405243125565915E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -8694,43 +8699,43 @@
         <v>419459</v>
       </c>
       <c r="F48">
+        <f t="shared" si="8"/>
+        <v>1.1472413775884711E-3</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="0"/>
-        <v>1.1472413775884711E-3</v>
-      </c>
-      <c r="G48">
+        <v>1.4661742864022467E-3</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="1"/>
-        <v>1.4661742864022467E-3</v>
-      </c>
-      <c r="H48">
+        <v>-6.7703950204391079</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="2"/>
-        <v>-6.7703950204391079</v>
-      </c>
-      <c r="I48">
+        <v>-6.5250987969071801</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="3"/>
-        <v>-6.5250987969071801</v>
-      </c>
-      <c r="J48">
+        <v>1.2360105533327925E-2</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="4"/>
-        <v>1.2360105533327925E-2</v>
-      </c>
-      <c r="K48">
+        <v>1.4811812273656388E-2</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="5"/>
-        <v>1.4811812273656388E-2</v>
-      </c>
-      <c r="L48">
+        <v>1.3585958903492156E-2</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="6"/>
-        <v>1.3585958903492156E-2</v>
-      </c>
-      <c r="M48">
+        <v>1.5586374208302697E-5</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="7"/>
-        <v>1.5586374208302697E-5</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="8"/>
         <v>1.9919383600417863E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -8747,43 +8752,43 @@
         <v>411653</v>
       </c>
       <c r="F49">
+        <f t="shared" si="8"/>
+        <v>1.198457324106113E-3</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="0"/>
-        <v>1.198457324106113E-3</v>
-      </c>
-      <c r="G49">
+        <v>1.6543059324236676E-3</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="1"/>
-        <v>1.6543059324236676E-3</v>
-      </c>
-      <c r="H49">
+        <v>-6.7267201124784055</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="2"/>
-        <v>-6.7267201124784055</v>
-      </c>
-      <c r="I49">
+        <v>-6.4043737342949472</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="3"/>
-        <v>-6.4043737342949472</v>
-      </c>
-      <c r="J49">
+        <v>1.1986394767962878E-2</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="4"/>
-        <v>1.1986394767962878E-2</v>
-      </c>
-      <c r="K49">
+        <v>1.4536169108035525E-2</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="5"/>
-        <v>1.4536169108035525E-2</v>
-      </c>
-      <c r="L49">
+        <v>1.3261281937999202E-2</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="6"/>
-        <v>1.3261281937999202E-2</v>
-      </c>
-      <c r="M49">
+        <v>1.5893080465631254E-5</v>
+      </c>
+      <c r="N49">
         <f t="shared" si="7"/>
-        <v>1.5893080465631254E-5</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="8"/>
         <v>2.1938217381574911E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -8800,43 +8805,43 @@
         <v>401104</v>
       </c>
       <c r="F50">
+        <f t="shared" si="8"/>
+        <v>1.3816284249304246E-3</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="0"/>
-        <v>1.3816284249304246E-3</v>
-      </c>
-      <c r="G50">
+        <v>1.7925525549483425E-3</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="1"/>
-        <v>1.7925525549483425E-3</v>
-      </c>
-      <c r="H50">
+        <v>-6.5844924574215975</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="2"/>
-        <v>-6.5844924574215975</v>
-      </c>
-      <c r="I50">
+        <v>-6.3241146665627896</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="3"/>
-        <v>-6.3241146665627896</v>
-      </c>
-      <c r="J50">
+        <v>1.1715091861793859E-2</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="4"/>
-        <v>1.1715091861793859E-2</v>
-      </c>
-      <c r="K50">
+        <v>1.4163665936867898E-2</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="5"/>
-        <v>1.4163665936867898E-2</v>
-      </c>
-      <c r="L50">
+        <v>1.2939378899330879E-2</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="6"/>
-        <v>1.2939378899330879E-2</v>
-      </c>
-      <c r="M50">
+        <v>1.7877413688260492E-5</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="7"/>
-        <v>1.7877413688260492E-5</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="8"/>
         <v>2.3194516705440236E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -8853,43 +8858,43 @@
         <v>387848</v>
       </c>
       <c r="F51">
+        <f t="shared" si="8"/>
+        <v>1.5009858506890347E-3</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="0"/>
-        <v>1.5009858506890347E-3</v>
-      </c>
-      <c r="G51">
+        <v>1.9853138342855966E-3</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="1"/>
-        <v>1.9853138342855966E-3</v>
-      </c>
-      <c r="H51">
+        <v>-6.5016331529648266</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="2"/>
-        <v>-6.5016331529648266</v>
-      </c>
-      <c r="I51">
+        <v>-6.2219782744252736</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="3"/>
-        <v>-6.2219782744252736</v>
-      </c>
-      <c r="J51">
+        <v>1.1636739125768932E-2</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="4"/>
-        <v>1.1636739125768932E-2</v>
-      </c>
-      <c r="K51">
+        <v>1.3695573981516865E-2</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="5"/>
-        <v>1.3695573981516865E-2</v>
-      </c>
-      <c r="L51">
+        <v>1.2666156553642898E-2</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="6"/>
-        <v>1.2666156553642898E-2</v>
-      </c>
-      <c r="M51">
+        <v>1.9011721769630179E-5</v>
+      </c>
+      <c r="N51">
         <f t="shared" si="7"/>
-        <v>1.9011721769630179E-5</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="8"/>
         <v>2.5146295833174421E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -8906,43 +8911,43 @@
         <v>374842</v>
       </c>
       <c r="F52">
+        <f t="shared" si="8"/>
+        <v>1.7427127092237984E-3</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="0"/>
-        <v>1.7427127092237984E-3</v>
-      </c>
-      <c r="G52">
+        <v>2.126229184563096E-3</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="1"/>
-        <v>2.126229184563096E-3</v>
-      </c>
-      <c r="H52">
+        <v>-6.3523123514891306</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="2"/>
-        <v>-6.3523123514891306</v>
-      </c>
-      <c r="I52">
+        <v>-6.153405204043171</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="3"/>
-        <v>-6.153405204043171</v>
-      </c>
-      <c r="J52">
+        <v>1.1775715709734375E-2</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="4"/>
-        <v>1.1775715709734375E-2</v>
-      </c>
-      <c r="K52">
+        <v>1.3236309952300244E-2</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="5"/>
-        <v>1.3236309952300244E-2</v>
-      </c>
-      <c r="L52">
+        <v>1.2506012831017309E-2</v>
+      </c>
+      <c r="M52">
         <f t="shared" si="6"/>
-        <v>1.2506012831017309E-2</v>
-      </c>
-      <c r="M52">
+        <v>2.1794387502329759E-5</v>
+      </c>
+      <c r="N52">
         <f t="shared" si="7"/>
-        <v>2.1794387502329759E-5</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="8"/>
         <v>2.659064946382955E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -8959,43 +8964,43 @@
         <v>365141</v>
       </c>
       <c r="F53">
+        <f t="shared" si="8"/>
+        <v>1.8011499147098698E-3</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="0"/>
-        <v>1.8011499147098698E-3</v>
-      </c>
-      <c r="G53">
+        <v>2.4702786047033887E-3</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="1"/>
-        <v>2.4702786047033887E-3</v>
-      </c>
-      <c r="H53">
+        <v>-6.3193299765469035</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="2"/>
-        <v>-6.3193299765469035</v>
-      </c>
-      <c r="I53">
+        <v>-6.0034243392767035</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="3"/>
-        <v>-6.0034243392767035</v>
-      </c>
-      <c r="J53">
+        <v>1.1813426242787726E-2</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="4"/>
-        <v>1.1813426242787726E-2</v>
-      </c>
-      <c r="K53">
+        <v>1.2893751106580541E-2</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="5"/>
-        <v>1.2893751106580541E-2</v>
-      </c>
-      <c r="L53">
+        <v>1.2353588674684134E-2</v>
+      </c>
+      <c r="M53">
         <f t="shared" si="6"/>
-        <v>1.2353588674684134E-2</v>
-      </c>
-      <c r="M53">
+        <v>2.2250665187768141E-5</v>
+      </c>
+      <c r="N53">
         <f t="shared" si="7"/>
-        <v>2.2250665187768141E-5</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="8"/>
         <v>3.0516805794378305E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -9012,43 +9017,43 @@
         <v>356157</v>
       </c>
       <c r="F54">
+        <f t="shared" si="8"/>
+        <v>1.8505402512474505E-3</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="0"/>
-        <v>1.8505402512474505E-3</v>
-      </c>
-      <c r="G54">
+        <v>2.8021350134912414E-3</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="1"/>
-        <v>2.8021350134912414E-3</v>
-      </c>
-      <c r="H54">
+        <v>-6.2922776548223682</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="2"/>
-        <v>-6.2922776548223682</v>
-      </c>
-      <c r="I54">
+        <v>-5.877373647541785</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="3"/>
-        <v>-5.877373647541785</v>
-      </c>
-      <c r="J54">
+        <v>1.1589847836919041E-2</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="4"/>
-        <v>1.1589847836919041E-2</v>
-      </c>
-      <c r="K54">
+        <v>1.2576510753014331E-2</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="5"/>
-        <v>1.2576510753014331E-2</v>
-      </c>
-      <c r="L54">
+        <v>1.2083179294966686E-2</v>
+      </c>
+      <c r="M54">
         <f t="shared" si="6"/>
-        <v>1.2083179294966686E-2</v>
-      </c>
-      <c r="M54">
+        <v>2.2360409648375642E-5</v>
+      </c>
+      <c r="N54">
         <f t="shared" si="7"/>
-        <v>2.2360409648375642E-5</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="8"/>
         <v>3.3858699776718566E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -9065,43 +9070,43 @@
         <v>345176</v>
       </c>
       <c r="F55">
+        <f t="shared" si="8"/>
+        <v>2.049362442680858E-3</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="0"/>
-        <v>2.049362442680858E-3</v>
-      </c>
-      <c r="G55">
+        <v>2.9202493800264211E-3</v>
+      </c>
+      <c r="H55">
         <f t="shared" si="1"/>
-        <v>2.9202493800264211E-3</v>
-      </c>
-      <c r="H55">
+        <v>-6.1902265377737731</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="2"/>
-        <v>-6.1902265377737731</v>
-      </c>
-      <c r="I55">
+        <v>-5.8360862622300331</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="3"/>
-        <v>-5.8360862622300331</v>
-      </c>
-      <c r="J55">
+        <v>1.1632449629783322E-2</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="4"/>
-        <v>1.1632449629783322E-2</v>
-      </c>
-      <c r="K55">
+        <v>1.2188752925486442E-2</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="5"/>
-        <v>1.2188752925486442E-2</v>
-      </c>
-      <c r="L55">
+        <v>1.1910601277634882E-2</v>
+      </c>
+      <c r="M55">
         <f t="shared" si="6"/>
-        <v>1.1910601277634882E-2</v>
-      </c>
-      <c r="M55">
+        <v>2.4409138928131568E-5</v>
+      </c>
+      <c r="N55">
         <f t="shared" si="7"/>
-        <v>2.4409138928131568E-5</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="8"/>
         <v>3.4781925996755163E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -9118,43 +9123,43 @@
         <v>333774</v>
       </c>
       <c r="F56">
+        <f t="shared" si="8"/>
+        <v>2.2166478959762467E-3</v>
+      </c>
+      <c r="G56">
         <f t="shared" si="0"/>
-        <v>2.2166478959762467E-3</v>
-      </c>
-      <c r="G56">
+        <v>3.3016352382150799E-3</v>
+      </c>
+      <c r="H56">
         <f t="shared" si="1"/>
-        <v>3.3016352382150799E-3</v>
-      </c>
-      <c r="H56">
+        <v>-6.1117591809989777</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="2"/>
-        <v>-6.1117591809989777</v>
-      </c>
-      <c r="I56">
+        <v>-5.7133374065106874</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="3"/>
-        <v>-5.7133374065106874</v>
-      </c>
-      <c r="J56">
+        <v>1.2056261091066632E-2</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="4"/>
-        <v>1.2056261091066632E-2</v>
-      </c>
-      <c r="K56">
+        <v>1.1786128870348203E-2</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="5"/>
-        <v>1.1786128870348203E-2</v>
-      </c>
-      <c r="L56">
+        <v>1.1921194980707418E-2</v>
+      </c>
+      <c r="M56">
         <f t="shared" si="6"/>
-        <v>1.1921194980707418E-2</v>
-      </c>
-      <c r="M56">
+        <v>2.6425091771507689E-5</v>
+      </c>
+      <c r="N56">
         <f t="shared" si="7"/>
-        <v>2.6425091771507689E-5</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="8"/>
         <v>3.9359437429936349E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -9171,43 +9176,43 @@
         <v>326304</v>
       </c>
       <c r="F57">
+        <f t="shared" si="8"/>
+        <v>2.3687337133957006E-3</v>
+      </c>
+      <c r="G57">
         <f t="shared" si="0"/>
-        <v>2.3687337133957006E-3</v>
-      </c>
-      <c r="G57">
+        <v>3.3894772972442875E-3</v>
+      </c>
+      <c r="H57">
         <f t="shared" si="1"/>
-        <v>3.3894772972442875E-3</v>
-      </c>
-      <c r="H57">
+        <v>-6.0453997647684883</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="2"/>
-        <v>-6.0453997647684883</v>
-      </c>
-      <c r="I57">
+        <v>-5.6870795590816723</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="3"/>
-        <v>-5.6870795590816723</v>
-      </c>
-      <c r="J57">
+        <v>1.2363500098496395E-2</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="4"/>
-        <v>1.2363500098496395E-2</v>
-      </c>
-      <c r="K57">
+        <v>1.1522350437451988E-2</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="5"/>
-        <v>1.1522350437451988E-2</v>
-      </c>
-      <c r="L57">
+        <v>1.1942925267974192E-2</v>
+      </c>
+      <c r="M57">
         <f t="shared" si="6"/>
-        <v>1.1942925267974192E-2</v>
-      </c>
-      <c r="M57">
+        <v>2.8289609718815851E-5</v>
+      </c>
+      <c r="N57">
         <f t="shared" si="7"/>
-        <v>2.8289609718815851E-5</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="8"/>
         <v>4.0480274058483669E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -9224,43 +9229,43 @@
         <v>324005</v>
       </c>
       <c r="F58">
+        <f t="shared" si="8"/>
+        <v>2.5067349626103868E-3</v>
+      </c>
+      <c r="G58">
         <f t="shared" si="0"/>
-        <v>2.5067349626103868E-3</v>
-      </c>
-      <c r="G58">
+        <v>3.8332741778676254E-3</v>
+      </c>
+      <c r="H58">
         <f t="shared" si="1"/>
-        <v>3.8332741778676254E-3</v>
-      </c>
-      <c r="H58">
+        <v>-5.9887741843374274</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="2"/>
-        <v>-5.9887741843374274</v>
-      </c>
-      <c r="I58">
+        <v>-5.564035964260734</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="3"/>
-        <v>-5.564035964260734</v>
-      </c>
-      <c r="J58">
+        <v>1.2772360043196767E-2</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="4"/>
-        <v>1.2772360043196767E-2</v>
-      </c>
-      <c r="K58">
+        <v>1.1441168828719941E-2</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="5"/>
-        <v>1.1441168828719941E-2</v>
-      </c>
-      <c r="L58">
+        <v>1.2106764435958355E-2</v>
+      </c>
+      <c r="M58">
         <f t="shared" si="6"/>
-        <v>1.2106764435958355E-2</v>
-      </c>
-      <c r="M58">
+        <v>3.0348449695704829E-5</v>
+      </c>
+      <c r="N58">
         <f t="shared" si="7"/>
-        <v>3.0348449695704829E-5</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="8"/>
         <v>4.6408547489885269E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -9277,43 +9282,43 @@
         <v>321249</v>
       </c>
       <c r="F59">
+        <f t="shared" si="8"/>
+        <v>2.7669374960015355E-3</v>
+      </c>
+      <c r="G59">
         <f t="shared" si="0"/>
-        <v>2.7669374960015355E-3</v>
-      </c>
-      <c r="G59">
+        <v>4.2739432651930434E-3</v>
+      </c>
+      <c r="H59">
         <f t="shared" si="1"/>
-        <v>4.2739432651930434E-3</v>
-      </c>
-      <c r="H59">
+        <v>-5.8900141675175828</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="2"/>
-        <v>-5.8900141675175828</v>
-      </c>
-      <c r="I59">
+        <v>-5.4552183965782834</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="3"/>
-        <v>-5.4552183965782834</v>
-      </c>
-      <c r="J59">
+        <v>1.3506295892303039E-2</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="4"/>
-        <v>1.3506295892303039E-2</v>
-      </c>
-      <c r="K59">
+        <v>1.134384977101419E-2</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="5"/>
-        <v>1.134384977101419E-2</v>
-      </c>
-      <c r="L59">
+        <v>1.2425072831658614E-2</v>
+      </c>
+      <c r="M59">
         <f t="shared" si="6"/>
-        <v>1.2425072831658614E-2</v>
-      </c>
-      <c r="M59">
+        <v>3.4379399908466196E-5</v>
+      </c>
+      <c r="N59">
         <f t="shared" si="7"/>
-        <v>3.4379399908466196E-5</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="8"/>
         <v>5.3104056348400391E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -9330,43 +9335,43 @@
         <v>317811</v>
       </c>
       <c r="F60">
+        <f t="shared" si="8"/>
+        <v>2.9160950151992039E-3</v>
+      </c>
+      <c r="G60">
         <f t="shared" si="0"/>
-        <v>2.9160950151992039E-3</v>
-      </c>
-      <c r="G60">
+        <v>4.650562755851748E-3</v>
+      </c>
+      <c r="H60">
         <f t="shared" si="1"/>
-        <v>4.650562755851748E-3</v>
-      </c>
-      <c r="H60">
+        <v>-5.8375098812790567</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="2"/>
-        <v>-5.8375098812790567</v>
-      </c>
-      <c r="I60">
+        <v>-5.3707670439417194</v>
+      </c>
+      <c r="J60">
         <f t="shared" si="3"/>
-        <v>-5.3707670439417194</v>
-      </c>
-      <c r="J60">
+        <v>1.4339337614486919E-2</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="4"/>
-        <v>1.4339337614486919E-2</v>
-      </c>
-      <c r="K60">
+        <v>1.1222448130813764E-2</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="5"/>
-        <v>1.1222448130813764E-2</v>
-      </c>
-      <c r="L60">
+        <v>1.2780892872650341E-2</v>
+      </c>
+      <c r="M60">
         <f t="shared" si="6"/>
-        <v>1.2780892872650341E-2</v>
-      </c>
-      <c r="M60">
+        <v>3.7270297995730692E-5</v>
+      </c>
+      <c r="N60">
         <f t="shared" si="7"/>
-        <v>3.7270297995730692E-5</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="8"/>
         <v>5.9438344380078737E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -9383,43 +9388,43 @@
         <v>319938</v>
       </c>
       <c r="F61">
+        <f t="shared" si="8"/>
+        <v>3.110864568662016E-3</v>
+      </c>
+      <c r="G61">
         <f t="shared" si="0"/>
-        <v>3.110864568662016E-3</v>
-      </c>
-      <c r="G61">
+        <v>4.8290606304971584E-3</v>
+      </c>
+      <c r="H61">
         <f t="shared" si="1"/>
-        <v>4.8290606304971584E-3</v>
-      </c>
-      <c r="H61">
+        <v>-5.7728545950704753</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="2"/>
-        <v>-5.7728545950704753</v>
-      </c>
-      <c r="I61">
+        <v>-5.3331033166721076</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="3"/>
-        <v>-5.3331033166721076</v>
-      </c>
-      <c r="J61">
+        <v>1.53263537267442E-2</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="4"/>
-        <v>1.53263537267442E-2</v>
-      </c>
-      <c r="K61">
+        <v>1.1297556126365335E-2</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="5"/>
-        <v>1.1297556126365335E-2</v>
-      </c>
-      <c r="L61">
+        <v>1.3311954926554768E-2</v>
+      </c>
+      <c r="M61">
         <f t="shared" si="6"/>
-        <v>1.3311954926554768E-2</v>
-      </c>
-      <c r="M61">
+        <v>4.1411688920644999E-5</v>
+      </c>
+      <c r="N61">
         <f t="shared" si="7"/>
-        <v>4.1411688920644999E-5</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="8"/>
         <v>6.4284237450778315E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -9436,43 +9441,43 @@
         <v>327236</v>
       </c>
       <c r="F62">
+        <f t="shared" si="8"/>
+        <v>3.3470146967916553E-3</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="0"/>
-        <v>3.3470146967916553E-3</v>
-      </c>
-      <c r="G62">
+        <v>5.3814372501802977E-3</v>
+      </c>
+      <c r="H62">
         <f t="shared" si="1"/>
-        <v>5.3814372501802977E-3</v>
-      </c>
-      <c r="H62">
+        <v>-5.6996864657283322</v>
+      </c>
+      <c r="I62">
         <f t="shared" si="2"/>
-        <v>-5.6996864657283322</v>
-      </c>
-      <c r="I62">
+        <v>-5.2247997936121546</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="3"/>
-        <v>-5.2247997936121546</v>
-      </c>
-      <c r="J62">
+        <v>1.662377196397459E-2</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="4"/>
-        <v>1.662377196397459E-2</v>
-      </c>
-      <c r="K62">
+        <v>1.1555260946081076E-2</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="5"/>
-        <v>1.1555260946081076E-2</v>
-      </c>
-      <c r="L62">
+        <v>1.4089516455027833E-2</v>
+      </c>
+      <c r="M62">
         <f t="shared" si="6"/>
-        <v>1.4089516455027833E-2</v>
-      </c>
-      <c r="M62">
+        <v>4.7157818645666023E-5</v>
+      </c>
+      <c r="N62">
         <f t="shared" si="7"/>
-        <v>4.7157818645666023E-5</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="8"/>
         <v>7.5821848688115042E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -9489,43 +9494,43 @@
         <v>339046</v>
       </c>
       <c r="F63">
+        <f t="shared" si="8"/>
+        <v>3.7797432520932065E-3</v>
+      </c>
+      <c r="G63">
         <f t="shared" si="0"/>
-        <v>3.7797432520932065E-3</v>
-      </c>
-      <c r="G63">
+        <v>5.8664605982669017E-3</v>
+      </c>
+      <c r="H63">
         <f t="shared" si="1"/>
-        <v>5.8664605982669017E-3</v>
-      </c>
-      <c r="H63">
+        <v>-5.5780991943841585</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="2"/>
-        <v>-5.5780991943841585</v>
-      </c>
-      <c r="I63">
+        <v>-5.1385037915184624</v>
+      </c>
+      <c r="J63">
         <f t="shared" si="3"/>
-        <v>-5.1385037915184624</v>
-      </c>
-      <c r="J63">
+        <v>1.7529164213771879E-2</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="4"/>
-        <v>1.7529164213771879E-2</v>
-      </c>
-      <c r="K63">
+        <v>1.1972292176670672E-2</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="5"/>
-        <v>1.1972292176670672E-2</v>
-      </c>
-      <c r="L63">
+        <v>1.4750728195221274E-2</v>
+      </c>
+      <c r="M63">
         <f t="shared" si="6"/>
-        <v>1.4750728195221274E-2</v>
-      </c>
-      <c r="M63">
+        <v>5.5753965359348611E-5</v>
+      </c>
+      <c r="N63">
         <f t="shared" si="7"/>
-        <v>5.5753965359348611E-5</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="8"/>
         <v>8.6534565753010258E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -9542,43 +9547,43 @@
         <v>358725</v>
       </c>
       <c r="F64">
+        <f t="shared" si="8"/>
+        <v>4.098590209437071E-3</v>
+      </c>
+      <c r="G64">
         <f t="shared" si="0"/>
-        <v>4.098590209437071E-3</v>
-      </c>
-      <c r="G64">
+        <v>6.1857969196459682E-3</v>
+      </c>
+      <c r="H64">
         <f t="shared" si="1"/>
-        <v>6.1857969196459682E-3</v>
-      </c>
-      <c r="H64">
+        <v>-5.4971122157591195</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="2"/>
-        <v>-5.4971122157591195</v>
-      </c>
-      <c r="I64">
+        <v>-5.0854994342840136</v>
+      </c>
+      <c r="J64">
         <f t="shared" si="3"/>
-        <v>-5.0854994342840136</v>
-      </c>
-      <c r="J64">
+        <v>1.7355131029521159E-2</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="4"/>
-        <v>1.7355131029521159E-2</v>
-      </c>
-      <c r="K64">
+        <v>1.2667191210267005E-2</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="5"/>
-        <v>1.2667191210267005E-2</v>
-      </c>
-      <c r="L64">
+        <v>1.5011161119894083E-2</v>
+      </c>
+      <c r="M64">
         <f t="shared" si="6"/>
-        <v>1.5011161119894083E-2</v>
-      </c>
-      <c r="M64">
+        <v>6.1524597998280305E-5</v>
+      </c>
+      <c r="N64">
         <f t="shared" si="7"/>
-        <v>6.1524597998280305E-5</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="8"/>
         <v>9.2855994215750137E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -9595,43 +9600,43 @@
         <v>357556</v>
       </c>
       <c r="F65">
+        <f t="shared" si="8"/>
+        <v>4.5230894713705382E-3</v>
+      </c>
+      <c r="G65">
         <f t="shared" si="0"/>
-        <v>4.5230894713705382E-3</v>
-      </c>
-      <c r="G65">
+        <v>7.1009855798811932E-3</v>
+      </c>
+      <c r="H65">
         <f t="shared" si="1"/>
-        <v>7.1009855798811932E-3</v>
-      </c>
-      <c r="H65">
+        <v>-5.3985600072603388</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="2"/>
-        <v>-5.3985600072603388</v>
-      </c>
-      <c r="I65">
+        <v>-4.9475216905008752</v>
+      </c>
+      <c r="J65">
         <f t="shared" si="3"/>
-        <v>-4.9475216905008752</v>
-      </c>
-      <c r="J65">
+        <v>1.4566464883940819E-2</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="4"/>
-        <v>1.4566464883940819E-2</v>
-      </c>
-      <c r="K65">
+        <v>1.2625911827662498E-2</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="5"/>
-        <v>1.2625911827662498E-2</v>
-      </c>
-      <c r="L65">
+        <v>1.3596188355801658E-2</v>
+      </c>
+      <c r="M65">
         <f t="shared" si="6"/>
-        <v>1.3596188355801658E-2</v>
-      </c>
-      <c r="M65">
+        <v>6.1496776402897183E-5</v>
+      </c>
+      <c r="N65">
         <f t="shared" si="7"/>
-        <v>6.1496776402897183E-5</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="8"/>
         <v>9.654633745589616E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -9648,43 +9653,43 @@
         <v>321010</v>
       </c>
       <c r="F66">
+        <f t="shared" si="8"/>
+        <v>4.1890940654059688E-3</v>
+      </c>
+      <c r="G66">
         <f t="shared" si="0"/>
-        <v>4.1890940654059688E-3</v>
-      </c>
-      <c r="G66">
+        <v>7.0963521385626616E-3</v>
+      </c>
+      <c r="H66">
         <f t="shared" si="1"/>
-        <v>7.0963521385626616E-3</v>
-      </c>
-      <c r="H66">
+        <v>-5.4752707819325295</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="2"/>
-        <v>-5.4752707819325295</v>
-      </c>
-      <c r="I66">
+        <v>-4.9481744102677672</v>
+      </c>
+      <c r="J66">
         <f t="shared" si="3"/>
-        <v>-4.9481744102677672</v>
-      </c>
-      <c r="J66">
+        <v>1.166144230229038E-2</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="4"/>
-        <v>1.166144230229038E-2</v>
-      </c>
-      <c r="K66">
+        <v>1.1335410273629692E-2</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="5"/>
-        <v>1.1335410273629692E-2</v>
-      </c>
-      <c r="L66">
+        <v>1.1498426287960037E-2</v>
+      </c>
+      <c r="M66">
         <f t="shared" si="6"/>
-        <v>1.1498426287960037E-2</v>
-      </c>
-      <c r="M66">
+        <v>4.8167989324401374E-5</v>
+      </c>
+      <c r="N66">
         <f t="shared" si="7"/>
-        <v>4.8167989324401374E-5</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="8"/>
         <v>8.1596881978670337E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -9737,7 +9742,7 @@
         <v>9.3496314579855912E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -9790,7 +9795,7 @@
         <v>1.0801519447047263E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -9843,7 +9848,7 @@
         <v>1.131443240118169E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -9896,7 +9901,7 @@
         <v>1.2266264694874078E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -9949,7 +9954,7 @@
         <v>1.3182730044241638E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -10002,7 +10007,7 @@
         <v>1.4230785983637668E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -10055,7 +10060,7 @@
         <v>1.470089543770905E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -10108,7 +10113,7 @@
         <v>1.6299279581344855E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -10161,7 +10166,7 @@
         <v>1.8292042912299865E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -10214,7 +10219,7 @@
         <v>1.977251451383212E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -10267,7 +10272,7 @@
         <v>2.1103288376496599E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -10320,7 +10325,7 @@
         <v>2.2937139830688663E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -10373,7 +10378,7 @@
         <v>2.5376953417003789E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -10426,7 +10431,7 @@
         <v>2.8111000585815245E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -10479,7 +10484,7 @@
         <v>3.0616918342047994E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -10532,7 +10537,7 @@
         <v>3.2660080773532348E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -10585,7 +10590,7 @@
         <v>3.4954046851000989E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -10638,7 +10643,7 @@
         <v>3.7576968661292328E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -10691,7 +10696,7 @@
         <v>4.0394232788299947E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -10744,7 +10749,7 @@
         <v>4.3011552340509928E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -10797,7 +10802,7 @@
         <v>4.3930058359549707E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -10850,7 +10855,7 @@
         <v>4.4334568621807828E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -10903,7 +10908,7 @@
         <v>4.51672564789859E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -10956,7 +10961,7 @@
         <v>4.6708006965936181E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -11009,7 +11014,7 @@
         <v>4.6980639436099256E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -11062,7 +11067,7 @@
         <v>4.6608698783496817E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -11115,7 +11120,7 @@
         <v>3.4237874266910672E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -11168,7 +11173,7 @@
         <v>3.2495638181747618E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -11221,7 +11226,7 @@
         <v>3.1959092859546053E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -11274,7 +11279,7 @@
         <v>2.9241773241112546E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -11327,7 +11332,7 @@
         <v>2.5745573819753453E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -11380,7 +11385,7 @@
         <v>2.2031765531814977E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -11433,7 +11438,7 @@
         <v>1.7869253823312874E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -11486,7 +11491,7 @@
         <v>1.33608113027425E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -11539,7 +11544,7 @@
         <v>9.9861745801485522E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -11592,7 +11597,7 @@
         <v>7.4392592546515966E-5</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -11645,7 +11650,7 @@
         <v>5.2609833818058047E-5</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -11698,7 +11703,7 @@
         <v>3.4537553249665351E-5</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -11751,7 +11756,7 @@
         <v>2.1257793574860159E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -11804,7 +11809,7 @@
         <v>1.1190997109702146E-5</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -11857,7 +11862,7 @@
         <v>6.0634921348325522E-6</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -11910,7 +11915,7 @@
         <v>3.356203418501992E-6</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -11963,7 +11968,7 @@
         <v>1.8751075035734189E-6</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -12016,7 +12021,7 @@
         <v>1.0936516891997697E-6</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -12069,7 +12074,7 @@
         <v>3.0035111871614168E-7</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -12122,7 +12127,7 @@
         <v>6.7476547747159915E-7</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B113">
         <f>SUM(B2:B112)</f>
         <v>563306</v>
@@ -12160,7 +12165,7 @@
         <v>1.0904782400316455E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -12169,7 +12174,7 @@
         <v>8.6917223944972619</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -12178,7 +12183,7 @@
         <v>9.0160315844834997</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -12187,7 +12192,7 @@
         <v>7.4064641572320769E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -12203,14 +12208,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
